--- a/biology/Zoologie/Carpophage_brillant/Carpophage_brillant.xlsx
+++ b/biology/Zoologie/Carpophage_brillant/Carpophage_brillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula chalconota
 Le Carpophage brillant (Ducula chalconota (Salvadori, 1874)) est une espèce d'oiseau appartenant à la famille  des  Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 37 à 39 cm de longueur pour une masse de 615 g environ.
 La tête et le cou sont gris bleu foncé. La gorge est brun rose. Les parties supérieures sont vert émeraude à bronze avec une zone rouge pourpre métallique sur le manteau, le dos et le croupion : les reflets métalliques sont moins nets chez la femelle que chez le mâle. Le ventre et les flancs sont châtain foncé, les sous-caudales châtain clair. La queue est noir bleuâtre avec une bande terminale gris foncé. Les iris sont rouge foncé, tout comme la base du bec noir. Les pattes sont pourpres.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Nouvelle-Guinée.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple la canopée inférieure des forêts intérieures entre 1 400 et 2 500 m d'altitude.
 </t>
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit, seul ou en couple, de figues et d'autres gros fruits.
 </t>
@@ -637,7 +657,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cet oiseau est représenté par deux sous-espèces :
 Ducula chalconota chalconota (Salvadori, 1874) ;
